--- a/values.xlsx
+++ b/values.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VAdam\Programozas\GitHub\ThermoSnake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Downloads\ThermoSnake\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8088" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
   <si>
     <t>temp1</t>
   </si>
@@ -117,7 +118,16 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -168,6 +178,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -228,14 +247,14 @@
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="temp1"/>
     <tableColumn id="3" name="temp2"/>
-    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>Táblázat3[[#This Row],[temp2]]-Táblázat3[[#This Row],[temp1]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat3[dif])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="calculated" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="5" name="calculated" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>Táblázat3[[#This Row],[temp1]]+0.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>ABS(Táblázat3[[#This Row],[calculated]]-Táblázat3[[#This Row],[temp2]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat3[miss])</totalsRowFormula>
     </tableColumn>
@@ -251,14 +270,14 @@
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="temp1"/>
     <tableColumn id="3" name="temp2"/>
-    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Táblázat35[[#This Row],[temp2]]-Táblázat35[[#This Row],[temp1]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat35[dif])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="calculated" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="5" name="calculated" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>Táblázat35[[#This Row],[temp1]]+0.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>ABS(Táblázat35[[#This Row],[calculated]]-Táblázat35[[#This Row],[temp2]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat35[miss])</totalsRowFormula>
     </tableColumn>
@@ -274,14 +293,14 @@
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="temp1"/>
     <tableColumn id="3" name="temp2"/>
-    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="4">
+    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>Táblázat356[[#This Row],[temp2]]-Táblázat356[[#This Row],[temp1]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat356[dif])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="calculated" dataDxfId="1" totalsRowDxfId="3">
+    <tableColumn id="5" name="calculated" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Táblázat356[[#This Row],[temp1]]*1.0286</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>ABS(Táblázat356[[#This Row],[calculated]]-Táblázat356[[#This Row],[temp2]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat356[miss])</totalsRowFormula>
     </tableColumn>
@@ -297,14 +316,14 @@
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="hum1"/>
     <tableColumn id="3" name="hum2"/>
-    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="0">
+    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>Táblázat7[[#This Row],[hum1]]-Táblázat7[[#This Row],[hum2]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat7[dif])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="calculated" dataDxfId="14">
+    <tableColumn id="5" name="calculated" dataDxfId="15">
       <calculatedColumnFormula>Táblázat7[[#This Row],[hum1]]-8.49</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="14">
       <calculatedColumnFormula>ABS(Táblázat7[[#This Row],[calculated]]-Táblázat7[[#This Row],[hum2]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat7[miss])</totalsRowFormula>
     </tableColumn>
@@ -320,14 +339,14 @@
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="hum1"/>
     <tableColumn id="3" name="hum2"/>
-    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>Táblázat79[[#This Row],[hum1]]-Táblázat79[[#This Row],[hum2]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat79[dif])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="calculated" dataDxfId="10">
+    <tableColumn id="5" name="calculated" dataDxfId="11">
       <calculatedColumnFormula>Táblázat79[[#This Row],[hum1]]-5.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="10">
       <calculatedColumnFormula>ABS(Táblázat79[[#This Row],[calculated]]-Táblázat79[[#This Row],[hum2]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat79[miss])</totalsRowFormula>
     </tableColumn>
@@ -343,16 +362,39 @@
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="hum1"/>
     <tableColumn id="3" name="hum2"/>
-    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>Táblázat7910[[#This Row],[hum1]]-Táblázat7910[[#This Row],[hum2]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat7910[dif])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="calculated" dataDxfId="6">
+    <tableColumn id="5" name="calculated" dataDxfId="7">
       <calculatedColumnFormula>Táblázat7910[[#This Row],[hum1]]-($O$23-Táblázat7910[[#This Row],[hum1]])*$P$23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="6">
       <calculatedColumnFormula>ABS(Táblázat7910[[#This Row],[calculated]]-Táblázat7910[[#This Row],[hum2]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Táblázat7910[miss])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Táblázat32" displayName="Táblázat32" ref="A1:F12" totalsRowCount="1">
+  <autoFilter ref="A1:F11"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="temp1"/>
+    <tableColumn id="3" name="temp2"/>
+    <tableColumn id="4" name="dif" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="3">
+      <calculatedColumnFormula>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Táblázat32[dif])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="calculated" dataDxfId="0" totalsRowDxfId="2">
+      <calculatedColumnFormula>Táblázat32[[#This Row],[temp2]]+0.6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="miss" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
+      <calculatedColumnFormula>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Táblázat32[miss])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -624,18 +666,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -676,7 +718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -734,7 +776,7 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -792,7 +834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -836,7 +878,7 @@
         <v>1.3099999999999952</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -880,7 +922,7 @@
         <v>9.9999999999980105E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -924,7 +966,7 @@
         <v>9.9999999999980105E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -971,7 +1013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1015,7 +1057,7 @@
         <v>1.509999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1059,7 +1101,7 @@
         <v>4.0800000000000054</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1103,7 +1145,7 @@
         <v>5.5500000000000043</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <f>AVERAGE(Táblázat3[dif])</f>
         <v>0.61666666666666714</v>
@@ -1122,7 +1164,7 @@
         <v>2.5088888888888885</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1204,7 +1246,7 @@
         <v>6.0000000000002274E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1248,7 +1290,7 @@
         <v>3.3500000000000014</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1292,7 +1334,7 @@
         <v>3.3500000000000014</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1336,7 +1378,7 @@
         <v>0.47999999999999687</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1380,7 +1422,7 @@
         <v>0.74000000000000199</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1424,7 +1466,7 @@
         <v>2.2100000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <f>AVERAGE(Táblázat35[dif])</f>
         <v>0.63333333333333341</v>
@@ -1443,7 +1485,7 @@
         <v>1.6983333333333341</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O21">
         <v>65</v>
       </c>
@@ -1457,7 +1499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1558,7 +1600,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1605,7 +1647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1649,7 +1691,7 @@
         <v>3.9399999999999977</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1693,7 +1735,7 @@
         <v>0.50999999999999801</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1737,7 +1779,7 @@
         <v>1.0499999999999972</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1781,7 +1823,7 @@
         <v>2.0000000000003126E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
         <f>AVERAGE(Táblázat356[dif])</f>
         <v>0.63333333333333341</v>
@@ -1814,4 +1856,317 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>24.2</v>
+      </c>
+      <c r="C2">
+        <v>23.4</v>
+      </c>
+      <c r="D2">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="E2">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I2" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>65</v>
+      </c>
+      <c r="K2">
+        <f>I2+0.7</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L2">
+        <f>J2-5.15</f>
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24.3</v>
+      </c>
+      <c r="C3">
+        <v>23.7</v>
+      </c>
+      <c r="D3">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="E3">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>24.3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>K3-0.7</f>
+        <v>24.3</v>
+      </c>
+      <c r="J3">
+        <f>L3+5.15</f>
+        <v>62.15</v>
+      </c>
+      <c r="K3" s="3">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>24.4</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="E4">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>24.6</v>
+      </c>
+      <c r="F4" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>24.5</v>
+      </c>
+      <c r="C5">
+        <v>23.9</v>
+      </c>
+      <c r="D5">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="E5">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>24.5</v>
+      </c>
+      <c r="F5" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24.2</v>
+      </c>
+      <c r="C6">
+        <v>23.8</v>
+      </c>
+      <c r="D6">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="E6">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>24.400000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>23.7</v>
+      </c>
+      <c r="C7">
+        <v>23.1</v>
+      </c>
+      <c r="D7">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>0.59999999999999787</v>
+      </c>
+      <c r="E7">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>23.700000000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>24.2</v>
+      </c>
+      <c r="C8">
+        <v>23.6</v>
+      </c>
+      <c r="D8">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>0.59999999999999787</v>
+      </c>
+      <c r="E8">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>3.5527136788005009E-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24.4</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="E9">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>24.6</v>
+      </c>
+      <c r="F9" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>25.9</v>
+      </c>
+      <c r="C10">
+        <v>24.9</v>
+      </c>
+      <c r="D10" s="1">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>25.5</v>
+      </c>
+      <c r="F10" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>26.1</v>
+      </c>
+      <c r="C11">
+        <v>25.1</v>
+      </c>
+      <c r="D11">
+        <f>Táblázat32[[#This Row],[temp1]]-Táblázat32[[#This Row],[temp2]]</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>Táblázat32[[#This Row],[temp2]]+0.6</f>
+        <v>25.700000000000003</v>
+      </c>
+      <c r="F11" s="1">
+        <f>ABS(Táblázat32[[#This Row],[calculated]]-Táblázat32[[#This Row],[temp1]])</f>
+        <v>0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <f>AVERAGE(Táblázat32[dif])</f>
+        <v>0.63999999999999946</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f>AVERAGE(Táblázat32[miss])</f>
+        <v>0.1600000000000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>